--- a/data/trans_orig/KIDMED_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/KIDMED_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E033C0A5-F35B-495C-90D8-73CB22CB243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A59A3EDC-FB02-47D6-BB2D-3F6BE828205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{68820A5F-03AF-44EF-8AA6-0E3F686411E6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16E0C1D8-D059-4049-AB46-A91380C0FBD0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="128">
   <si>
     <t>Recodificación Kidmed en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -104,76 +104,76 @@
     <t>67,17%</t>
   </si>
   <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
   </si>
   <si>
     <t>59,97%</t>
   </si>
   <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
   </si>
   <si>
     <t>30,65%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
   </si>
   <si>
     <t>38,94%</t>
   </si>
   <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
   </si>
   <si>
     <t>34,59%</t>
   </si>
   <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>8,66%</t>
+    <t>8,16%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>6,55%</t>
+    <t>6,63%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -182,169 +182,172 @@
     <t>64,11%</t>
   </si>
   <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
   </si>
   <si>
     <t>62,47%</t>
   </si>
   <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
   </si>
   <si>
     <t>63,32%</t>
   </si>
   <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
   </si>
   <si>
     <t>32,81%</t>
   </si>
   <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
   </si>
   <si>
     <t>34,91%</t>
   </si>
   <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
   </si>
   <si>
     <t>33,82%</t>
   </si>
   <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,6%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
   </si>
   <si>
     <t>4,18%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
   <si>
     <t>63,84%</t>
   </si>
   <si>
-    <t>60,33%</t>
+    <t>60,36%</t>
   </si>
   <si>
     <t>67,32%</t>
@@ -353,67 +356,67 @@
     <t>62,75%</t>
   </si>
   <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
   </si>
   <si>
     <t>32,88%</t>
   </si>
   <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
   </si>
   <si>
     <t>34,61%</t>
   </si>
   <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
   </si>
   <si>
     <t>33,7%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>31,33%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>3,94%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -828,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5131B8E0-D28C-4F09-8070-67BC672CA75F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D58F7B-95AE-4D90-AF0C-627591A8F61F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1300,7 +1303,7 @@
         <v>77</v>
       </c>
       <c r="D11" s="7">
-        <v>55514</v>
+        <v>55513</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>14</v>
@@ -1664,13 +1667,13 @@
         <v>7218</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -1679,13 +1682,13 @@
         <v>4754</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -1694,13 +1697,13 @@
         <v>11972</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,13 +1771,13 @@
         <v>452848</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>580</v>
@@ -1783,13 +1786,13 @@
         <v>402002</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7">
         <v>1187</v>
@@ -1801,10 +1804,10 @@
         <v>53</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1822,13 @@
         <v>233236</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H21" s="7">
         <v>311</v>
@@ -1834,13 +1837,13 @@
         <v>221745</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M21" s="7">
         <v>614</v>
@@ -1849,13 +1852,13 @@
         <v>454981</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,10 +1906,10 @@
         <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,7 +1965,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDMED_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/KIDMED_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A59A3EDC-FB02-47D6-BB2D-3F6BE828205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7972A420-6C61-438C-A324-2C9960F2A17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16E0C1D8-D059-4049-AB46-A91380C0FBD0}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{0FEF57A9-B58D-44DC-9979-D5DC40F5AD63}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>Recodificación Kidmed en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,358 +65,343 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Alta</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Baja</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -831,8 +816,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D58F7B-95AE-4D90-AF0C-627591A8F61F}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CD7830-01F7-4155-BB6D-67DBC2BE5E94}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -949,145 +934,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D4" s="7">
+        <v>29258</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>38099</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>67356</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D5" s="7">
+        <v>23916</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>18988</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>42903</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>526</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>1258</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>1784</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1096,202 +1087,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D7" s="7">
+        <v>53699</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I7" s="7">
-        <v>1171</v>
+        <v>58345</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="N7" s="7">
-        <v>1171</v>
+        <v>112043</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>52</v>
+        <v>397</v>
       </c>
       <c r="D8" s="7">
-        <v>37287</v>
+        <v>267628</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>40</v>
+        <v>411</v>
       </c>
       <c r="I8" s="7">
-        <v>30075</v>
+        <v>312627</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>92</v>
+        <v>808</v>
       </c>
       <c r="N8" s="7">
-        <v>67362</v>
+        <v>580255</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="D9" s="7">
-        <v>17014</v>
+        <v>172767</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="I9" s="7">
-        <v>19531</v>
+        <v>176961</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
-        <v>49</v>
+        <v>411</v>
       </c>
       <c r="N9" s="7">
-        <v>36545</v>
+        <v>349728</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11438</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="7">
         <v>19</v>
       </c>
-      <c r="C10" s="7">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1212</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
       <c r="I10" s="7">
-        <v>548</v>
+        <v>15661</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>1760</v>
+        <v>27099</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,204 +1293,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>77</v>
+        <v>625</v>
       </c>
       <c r="D11" s="7">
-        <v>55513</v>
+        <v>451832</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>67</v>
+        <v>630</v>
       </c>
       <c r="I11" s="7">
-        <v>50154</v>
+        <v>505250</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>144</v>
+        <v>1255</v>
       </c>
       <c r="N11" s="7">
-        <v>105667</v>
+        <v>957082</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>411</v>
+        <v>142</v>
       </c>
       <c r="D12" s="7">
-        <v>308570</v>
+        <v>92760</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
-        <v>397</v>
+        <v>144</v>
       </c>
       <c r="I12" s="7">
-        <v>275636</v>
+        <v>110512</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
-        <v>808</v>
+        <v>286</v>
       </c>
       <c r="N12" s="7">
-        <v>584206</v>
+        <v>203271</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="D13" s="7">
-        <v>157937</v>
+        <v>48835</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="I13" s="7">
-        <v>154058</v>
+        <v>63017</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
-        <v>411</v>
+        <v>154</v>
       </c>
       <c r="N13" s="7">
-        <v>311994</v>
+        <v>111851</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>14819</v>
+        <v>4591</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>11560</v>
+        <v>7611</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="N14" s="7">
-        <v>26380</v>
+        <v>12201</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1506,204 +1499,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>630</v>
+        <v>222</v>
       </c>
       <c r="D15" s="7">
-        <v>481326</v>
+        <v>146186</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>625</v>
+        <v>233</v>
       </c>
       <c r="I15" s="7">
-        <v>441254</v>
+        <v>181139</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>1255</v>
+        <v>455</v>
       </c>
       <c r="N15" s="7">
-        <v>922580</v>
+        <v>327324</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>144</v>
+        <v>579</v>
       </c>
       <c r="D16" s="7">
-        <v>106991</v>
+        <v>389645</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
-        <v>142</v>
+        <v>607</v>
       </c>
       <c r="I16" s="7">
-        <v>95120</v>
+        <v>461237</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
-        <v>286</v>
+        <v>1186</v>
       </c>
       <c r="N16" s="7">
-        <v>202111</v>
+        <v>850883</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="D17" s="7">
-        <v>58285</v>
+        <v>245517</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
-        <v>74</v>
+        <v>303</v>
       </c>
       <c r="I17" s="7">
-        <v>48156</v>
+        <v>258966</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
-        <v>154</v>
+        <v>614</v>
       </c>
       <c r="N17" s="7">
-        <v>106441</v>
+        <v>504483</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D18" s="7">
-        <v>7218</v>
+        <v>16554</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I18" s="7">
-        <v>4754</v>
+        <v>24530</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="N18" s="7">
-        <v>11972</v>
+        <v>41084</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,267 +1705,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>233</v>
+        <v>914</v>
       </c>
       <c r="D19" s="7">
-        <v>172494</v>
+        <v>651717</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
-        <v>222</v>
+        <v>940</v>
       </c>
       <c r="I19" s="7">
-        <v>148030</v>
+        <v>744733</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
-        <v>455</v>
+        <v>1854</v>
       </c>
       <c r="N19" s="7">
-        <v>320524</v>
+        <v>1396450</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>607</v>
-      </c>
-      <c r="D20" s="7">
-        <v>452848</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="7">
-        <v>580</v>
-      </c>
-      <c r="I20" s="7">
-        <v>402002</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1187</v>
-      </c>
-      <c r="N20" s="7">
-        <v>854850</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>303</v>
-      </c>
-      <c r="D21" s="7">
-        <v>233236</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" s="7">
-        <v>311</v>
-      </c>
-      <c r="I21" s="7">
-        <v>221745</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M21" s="7">
-        <v>614</v>
-      </c>
-      <c r="N21" s="7">
-        <v>454981</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>30</v>
-      </c>
-      <c r="D22" s="7">
-        <v>23250</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" s="7">
-        <v>24</v>
-      </c>
-      <c r="I22" s="7">
-        <v>16862</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="A20" t="s">
         <v>122</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M22" s="7">
-        <v>54</v>
-      </c>
-      <c r="N22" s="7">
-        <v>40112</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>940</v>
-      </c>
-      <c r="D23" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="7">
-        <v>915</v>
-      </c>
-      <c r="I23" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>127</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
